--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>foodie</t>
+          <t>islamabad</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>islamabad</t>
+          <t>order</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,29 +456,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>burger</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>chicken</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gift</t>
@@ -486,69 +486,69 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>pakistan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>day</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>jewelrystorage</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>faisalabad</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>musthave</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>yearendingsale</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>collection</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>fashion</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>instores</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>dress</t>
@@ -561,80 +561,70 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>beauty</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>concealer</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>makeupartist</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>concealer</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>lipstick</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>stunning</t>
+          <t>winteroutfit</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>winterfashion</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>winteroutfit</t>
+          <t>highlighter</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>winterfashion</t>
+          <t>fitness</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>fitness</t>
+          <t>workout</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>workout</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>sadiaariffitness</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>fitnessmodel</t>
+          <t>outfitideas</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>bodybuilding</t>
+          <t>classy</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>sadiaariffitness</t>
+          <t>competition</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>instagram</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>trending</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>predicted_category</t>
         </is>
@@ -656,20 +646,20 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>16</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -677,11 +667,11 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -757,15 +747,9 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Beauty</t>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -804,40 +788,40 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -887,13 +871,7 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -906,10 +884,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -933,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -951,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -966,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1016,13 +994,7 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1035,29 +1007,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -1065,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1086,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1145,13 +1117,7 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1164,67 +1130,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1236,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1251,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1274,13 +1240,7 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -1302,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1320,20 +1280,20 @@
         <v>34</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14</v>
+      </c>
+      <c r="M7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -1403,13 +1363,7 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1422,123 +1376,117 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
         <v>2</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>chicken</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>order</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>islamabadfoodblog</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>recipe</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>burger</t>
+          <t>pakistanifood</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cake</t>
+          <t>taste</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>eid</t>
+          <t>one</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,74 +486,74 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>pakistan</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>box</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>birthday</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>karachi</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>lahore</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>winter</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>instores</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>collection</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>dupatta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>fashion</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>day</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>jewelrystorage</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>faisalabad</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>winter</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>fashion</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>instores</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dress</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>makeup</t>
@@ -566,12 +566,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>concealer</t>
+          <t>makeupartist</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>makeupartist</t>
+          <t>product</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>highlighter</t>
+          <t>trendingsongs</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -756,15 +756,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">outfitters_pk
-</t>
+          <t>foodiemaniac__</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -779,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -812,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -821,13 +820,13 @@
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,14 +872,14 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>food</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>limelightunstitched</t>
+          <t>beauty_spectrum</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -911,58 +910,58 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -996,18 +995,18 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Beauty</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>foodiemaniac__</t>
+          <t>giftshopbyem</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1016,25 +1015,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1049,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1058,23 +1057,23 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>3</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
@@ -1119,18 +1118,18 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>Clothing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>beauty_spectrum</t>
+          <t>anfasfit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1148,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1157,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1175,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1196,37 +1195,37 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>8</v>
       </c>
-      <c r="Z6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1242,14 +1241,14 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Fitness</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>giftshopbyem</t>
+          <t>quilim.fsd</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1268,31 +1267,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1319,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1365,18 +1364,18 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>GiftShop</t>
+          <t>food</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>anfasfit</t>
+          <t>fitness_landmark</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1403,92 +1402,584 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>goldenbowlpakistan</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Clothing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>makeup_products.pk</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Beauty</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>makeupbynoormir</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>7</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Fitness</t>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>14</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Beauty</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>clothes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>20</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Clothing</t>
         </is>
       </c>
     </row>

--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,99 +441,99 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>chicken</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>islamabad</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>chicken</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>burger</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>order</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>islamabadfoodblog</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pakistanifood</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>taste</t>
+          <t>foodie</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>biryani</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cake</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pakistan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>one</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sweet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gift</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>box</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pakistan</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>birthday</t>
+          <t>day</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>karachi</t>
+          <t>onlineshopping</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>world</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>lahore</t>
+          <t>eid</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>customized</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>winter</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>instores</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>style</t>
@@ -541,17 +541,17 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>dupatta</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>fashion</t>
+          <t>elegance</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>adorned</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -561,70 +561,75 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>makeupartist</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>skin</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>beauty</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>makeupartist</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>stunning</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>lash</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>winteroutfit</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>winterfashion</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>trendingsongs</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>fitness</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>workout</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>exercise</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>sadiaariffitness</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>outfitideas</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>classy</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>competition</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>predicted_category</t>
         </is>
@@ -637,10 +642,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -655,20 +660,20 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -712,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -747,7 +752,10 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -760,11 +768,11 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -775,34 +783,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -820,10 +828,10 @@
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -870,7 +878,10 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -883,11 +894,11 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
@@ -910,31 +921,31 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -955,16 +966,16 @@
         <v>8</v>
       </c>
       <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="n">
         <v>5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3</v>
-      </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -993,7 +1004,10 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -1024,32 +1038,32 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
@@ -1072,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1116,9 +1130,12 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Clothing</t>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>GiftShop</t>
         </is>
       </c>
     </row>
@@ -1129,11 +1146,11 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
@@ -1147,22 +1164,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1195,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1219,17 +1236,17 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>13</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>2</v>
       </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
@@ -1239,7 +1256,10 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -1267,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1285,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1318,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1333,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1362,9 +1382,12 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>food</t>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Clothing</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1402,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1414,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1465,17 +1488,17 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>13</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>9</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>1</v>
       </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
@@ -1485,7 +1508,10 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
@@ -1498,46 +1524,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1564,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1608,9 +1634,12 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Clothing</t>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>food</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1651,13 +1680,13 @@
         <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1731,7 +1760,10 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -1771,14 +1803,14 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>7</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1804,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>47</v>
@@ -1822,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1854,7 +1886,10 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -1885,22 +1920,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1927,35 +1962,35 @@
         <v>20</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>6</v>
       </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
@@ -1977,7 +2012,10 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
